--- a/7. 软件设计部/人员技术盘点/平台组态资源组_产品线划分及技术盘点.xlsx
+++ b/7. 软件设计部/人员技术盘点/平台组态资源组_产品线划分及技术盘点.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_Code\99se\Hollysys\7. 软件设计部\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_Code\99se\Hollysys\7. 软件设计部\人员技术盘点\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,13 +14,14 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="M7_AT人员盘点" sheetId="8" r:id="rId2"/>
+    <sheet name="知识地图" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="130">
   <si>
     <t>产品线</t>
   </si>
@@ -199,95 +200,52 @@
     <t>其它说明</t>
   </si>
   <si>
-    <t>编译原理（词法、语法分析、语法树、编译连接等）</t>
-  </si>
-  <si>
     <t>AT关键功能，维护难度比较高</t>
   </si>
   <si>
-    <t>LLVM编译器技术</t>
-  </si>
-  <si>
     <t>M7替代HCC组件的关键技术</t>
   </si>
   <si>
     <t>M7中SIS产品需要通过SIL3安全认证</t>
   </si>
   <si>
-    <t>IEC技术（掌握IEC61131-3标准）</t>
-  </si>
-  <si>
     <t>AT关键功能，专业性比较强</t>
   </si>
   <si>
-    <t>掌握X86、ARM、PPC、MIPS等常规硬件平台汇编指令</t>
-  </si>
-  <si>
     <t>AT后台编译需要针对不同平台编写一些简单逻辑的二进制代码</t>
   </si>
   <si>
-    <t>熟悉ProfiBus协议原理，满足上位机组态软件开发。</t>
-  </si>
-  <si>
     <t>主打协议，需要熟悉，解决现场问题</t>
   </si>
   <si>
-    <t>熟悉Modbus协议原理，满足上位机组态软件开发。</t>
-  </si>
-  <si>
     <t>常用协议，涉及第三方，现场问题等比较多</t>
   </si>
   <si>
     <t>专业性比较强，属于快速主控的关键模块</t>
   </si>
   <si>
-    <t>熟悉ProfiNet协议原理，满足上位机组态软件开发。</t>
-  </si>
-  <si>
     <t>专业性比较强，目前公司刚接触，后期需求、维护等需要对协议比较熟悉</t>
   </si>
   <si>
-    <t>熟悉FF协议原理，满足上位机组态软件开发。</t>
-  </si>
-  <si>
-    <t>掌握除C\C++语言以外的语言至少1种以上</t>
-  </si>
-  <si>
     <t>满足常规开发、设计等要求</t>
   </si>
   <si>
-    <t>关系型数据库(SQLite)开发技术</t>
-  </si>
-  <si>
     <t>AT中使用SQLite，需要掌握开发技术</t>
   </si>
   <si>
-    <t>关系型数据库(MySQL)开发技术</t>
-  </si>
-  <si>
     <t>AT中使用MySQL，需要掌握开发技术</t>
   </si>
   <si>
-    <t>ST、LD语言编写系统POU算法逻辑</t>
-  </si>
-  <si>
     <t>AT集成模块开发必备功能</t>
   </si>
   <si>
     <t>Batch需要下沉控制器，和AT交互更加密切</t>
   </si>
   <si>
-    <t>QT界面开发</t>
-  </si>
-  <si>
     <t>M7开发界面库，必须掌握</t>
   </si>
   <si>
     <t>一般开发基本都涉及和其他系统的交互，需要了解现有的交互机制以及内容</t>
-  </si>
-  <si>
-    <t>熟悉PowerLink协议原理，满足上位机组态软件开发。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>匹配人员</t>
@@ -381,44 +339,23 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>编译器模块</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>硬件配置模块</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>算法库模块</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>在线模块</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>UI模块</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>基础模块</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>编译器模块</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>IEC模块
-编译器模块</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>×</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>全部模块</t>
+    <t>AT与HMI、RTS、硬件等强相关模块交互机制、内容</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>编译原理（词法、语法分析、语法树、编译连接等）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>LLVM编译器技术</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -426,7 +363,47 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>全部模块</t>
+    <t>IEC技术（掌握IEC61131-3标准）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握X86、ARM、PPC、MIPS等常规硬件平台汇编指令</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉ProfiBus协议原理，满足上位机组态软件开发。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉Modbus协议原理，满足上位机组态软件开发。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉PowerLink协议原理，满足上位机组态软件开发。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉ProfiNet协议原理，满足上位机组态软件开发。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉FF协议原理，满足上位机组态软件开发。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握除C\C++语言以外的语言至少1种以上</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系型数据库(SQLite)开发技术</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系型数据库(MySQL)开发技术</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST、LD语言编写系统POU算法逻辑</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -434,19 +411,98 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>AT与HMI、RTS、硬件等强相关模块交互机制、内容</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>QT界面开发</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>子模块</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>编译</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>编译器LLVM</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>编译在线</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEC</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CFC</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>LD</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFC</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FBD</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件配置、变量</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>注：
+模块共三个方向：
+1. 编译在线模块
+2. IEC模块
+3. 硬件配置、变量、算法库、基础模块
 1. SIL3安全认证相关技术：由贾（骏）工出认证标准，AT需要符合该标准，涉及所有模块
 2. Batch产品和AT的交互机制：主要涉及IEC模块，M7会重新讨论交互机制，涉外同事：高祖汉
 3. AT与HMI、RTS、硬件的交互机制：涉及各模块相关人
-4. 协议原理：这块涉及上位机下位机及通讯，面比较广，现无人熟悉
+4. 协议原理：原理暂无人熟悉
 5. 协议实现 1. DP/MODBUS协议 熟悉
            2. PowerLink协议 了解
            3. ProfiNet协议 了解
            4. FF协议 了解</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEC模块
+编译在线模块</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>编译在线模块</t>
+  </si>
+  <si>
+    <t>编译在线模块</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件配置、变量、算法库、基础模块</t>
+  </si>
+  <si>
+    <t>技术，不属于专门模块</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -454,7 +510,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,6 +576,12 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -720,9 +782,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -743,6 +802,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -752,13 +820,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1165,118 +1227,118 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="33"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B4" s="35"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="33"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="33"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B6" s="31"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="33"/>
+      <c r="E6" s="32"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B7" s="31"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="33"/>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="31"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="33"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B9" s="31"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="33"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="31"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="33"/>
+      <c r="E10" s="32"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="31"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="33"/>
+      <c r="E11" s="32"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B12" s="31"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="33"/>
+      <c r="E12" s="32"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B13" s="31"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="33"/>
+      <c r="E13" s="32"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B14" s="32"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="33"/>
+      <c r="E14" s="32"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="33"/>
+      <c r="E15" s="32"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B16" s="31"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="33"/>
+      <c r="E16" s="32"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B17" s="32"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="33"/>
+      <c r="E17" s="32"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="29" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -1287,14 +1349,14 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B19" s="32"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="15"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="29" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -1305,7 +1367,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B21" s="32"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="8" t="s">
         <v>29</v>
       </c>
@@ -1314,7 +1376,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="29" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="9" t="s">
@@ -1328,7 +1390,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B23" s="31"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="8" t="s">
         <v>34</v>
       </c>
@@ -1340,7 +1402,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B24" s="32"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="8" t="s">
         <v>36</v>
       </c>
@@ -1400,8 +1462,8 @@
   <dimension ref="A2:AG22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AH12" sqref="AH12"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1418,166 +1480,166 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="T2" s="36"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="W2" s="36"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="T2" s="40"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="W2" s="40"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="41"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="37"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
       <c r="J3" s="25" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="K3" s="25" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="M3" s="25" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="N3" s="25" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="O3" s="25" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="P3" s="25" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="Q3" s="25" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="R3" s="25" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="S3" s="25" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="T3" s="25" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="U3" s="25" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="V3" s="25" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="W3" s="25" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="X3" s="25" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="Y3" s="25" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="Z3" s="25" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="AA3" s="25" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="AB3" s="25" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="AC3" s="25" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="AD3" s="25" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="AE3" s="25" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="AF3" s="25" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="AG3" s="25" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>53</v>
-      </c>
       <c r="C4" s="22" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D4" s="23">
         <v>9</v>
@@ -1593,34 +1655,34 @@
       </c>
       <c r="H4" s="23"/>
       <c r="I4" s="21" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="L4" s="17"/>
       <c r="M4" s="21" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="O4" s="17"/>
       <c r="P4" s="21" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="Q4" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="R4" s="17"/>
       <c r="S4" s="21" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="T4" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="U4" s="17"/>
       <c r="V4" s="17"/>
@@ -1638,13 +1700,13 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A5" s="22" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="D5" s="24">
         <v>9</v>
@@ -1660,7 +1722,7 @@
       </c>
       <c r="H5" s="23"/>
       <c r="I5" s="21" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="J5" s="21"/>
       <c r="K5" s="21"/>
@@ -1669,17 +1731,17 @@
       <c r="N5" s="17"/>
       <c r="O5" s="17"/>
       <c r="P5" s="21" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="Q5" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="R5" s="17"/>
       <c r="S5" s="21" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="T5" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="U5" s="17"/>
       <c r="V5" s="17"/>
@@ -1697,13 +1759,13 @@
     </row>
     <row r="6" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="22" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="D6" s="24">
         <v>8</v>
@@ -1719,74 +1781,74 @@
       </c>
       <c r="H6" s="23"/>
       <c r="I6" s="21" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="K6" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="L6" s="18"/>
       <c r="M6" s="21" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="O6" s="18"/>
       <c r="P6" s="21" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="Q6" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="R6" s="18"/>
       <c r="S6" s="21" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="T6" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="U6" s="18"/>
       <c r="V6" s="21" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="W6" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="X6" s="18"/>
       <c r="Y6" s="21" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="Z6" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="AA6" s="18"/>
       <c r="AB6" s="21" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="AC6" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="AD6" s="18"/>
       <c r="AE6" s="21" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="AF6" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="AG6" s="18"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A7" s="22" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D7" s="23">
         <v>8</v>
@@ -1802,20 +1864,20 @@
       </c>
       <c r="H7" s="23"/>
       <c r="I7" s="21" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="L7" s="17"/>
       <c r="M7" s="21" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="O7" s="17"/>
       <c r="P7" s="17"/>
@@ -1838,30 +1900,30 @@
       <c r="AG7" s="17"/>
     </row>
     <row r="8" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="29">
+      <c r="A8" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="28">
         <v>9</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="28">
         <v>7</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="28">
         <v>3</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="28">
         <v>16</v>
       </c>
-      <c r="H8" s="29"/>
+      <c r="H8" s="28"/>
       <c r="I8" s="21" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
@@ -1870,17 +1932,17 @@
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
       <c r="P8" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="Q8" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="R8" s="16"/>
       <c r="S8" s="21" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="T8" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="U8" s="16"/>
       <c r="V8" s="16"/>
@@ -1898,13 +1960,13 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A9" s="22" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="D9" s="23">
         <v>8</v>
@@ -1920,7 +1982,7 @@
       </c>
       <c r="H9" s="23"/>
       <c r="I9" s="21" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
@@ -1935,10 +1997,10 @@
       <c r="T9" s="17"/>
       <c r="U9" s="17"/>
       <c r="V9" s="21" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="W9" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="X9" s="17"/>
       <c r="Y9" s="17"/>
@@ -1953,13 +2015,13 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A10" s="22" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="D10" s="23">
         <v>7</v>
@@ -1975,7 +2037,7 @@
       </c>
       <c r="H10" s="23"/>
       <c r="I10" s="21" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
@@ -1990,10 +2052,10 @@
       <c r="T10" s="17"/>
       <c r="U10" s="17"/>
       <c r="V10" s="21" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="W10" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="X10" s="17"/>
       <c r="Y10" s="17"/>
@@ -2008,13 +2070,13 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A11" s="22" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="D11" s="23">
         <v>9</v>
@@ -2028,7 +2090,7 @@
       </c>
       <c r="H11" s="23"/>
       <c r="I11" s="21" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
@@ -2043,10 +2105,10 @@
       <c r="T11" s="17"/>
       <c r="U11" s="17"/>
       <c r="V11" s="21" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="W11" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="X11" s="17"/>
       <c r="Y11" s="17"/>
@@ -2061,13 +2123,13 @@
     </row>
     <row r="12" spans="1:33" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="22" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="D12" s="23">
         <v>9</v>
@@ -2083,7 +2145,7 @@
       </c>
       <c r="H12" s="23"/>
       <c r="I12" s="21" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
@@ -2098,10 +2160,10 @@
       <c r="T12" s="17"/>
       <c r="U12" s="17"/>
       <c r="V12" s="21" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="W12" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="X12" s="17"/>
       <c r="Y12" s="17"/>
@@ -2116,13 +2178,13 @@
     </row>
     <row r="13" spans="1:33" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="22" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="D13" s="23">
         <v>9</v>
@@ -2138,7 +2200,7 @@
       </c>
       <c r="H13" s="23"/>
       <c r="I13" s="21" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
@@ -2153,10 +2215,10 @@
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
       <c r="V13" s="21" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="W13" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="X13" s="17"/>
       <c r="Y13" s="17"/>
@@ -2171,13 +2233,13 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A14" s="22" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="D14" s="23">
         <v>6</v>
@@ -2193,74 +2255,74 @@
       </c>
       <c r="H14" s="23"/>
       <c r="I14" s="21" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="L14" s="17"/>
       <c r="M14" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="N14" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="O14" s="17"/>
       <c r="P14" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="Q14" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="R14" s="17"/>
       <c r="S14" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="T14" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="U14" s="17"/>
       <c r="V14" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="W14" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="X14" s="17"/>
       <c r="Y14" s="21" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="Z14" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="AA14" s="17"/>
       <c r="AB14" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="AC14" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="AD14" s="17"/>
       <c r="AE14" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="AF14" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="AG14" s="17"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A15" s="22" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="D15" s="23">
         <v>5</v>
@@ -2276,55 +2338,55 @@
       </c>
       <c r="H15" s="23"/>
       <c r="I15" s="21" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="K15" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="L15" s="17"/>
       <c r="M15" s="21" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="N15" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="O15" s="17"/>
       <c r="P15" s="21" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="Q15" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="R15" s="17"/>
       <c r="S15" s="21" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="T15" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="U15" s="17"/>
       <c r="V15" s="21" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="W15" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="X15" s="17"/>
       <c r="Y15" s="21" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="Z15" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="AA15" s="17"/>
       <c r="AB15" s="21" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="AC15" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="AD15" s="17"/>
       <c r="AE15" s="17"/>
@@ -2333,13 +2395,13 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A16" s="22" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="D16" s="23">
         <v>5</v>
@@ -2355,70 +2417,70 @@
       </c>
       <c r="H16" s="23"/>
       <c r="I16" s="21" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="L16" s="17"/>
       <c r="M16" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="N16" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="O16" s="17"/>
       <c r="P16" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="R16" s="17"/>
       <c r="S16" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="T16" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="U16" s="17"/>
       <c r="V16" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="W16" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="X16" s="17"/>
       <c r="Y16" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="Z16" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="AA16" s="17"/>
       <c r="AB16" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="AC16" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="AD16" s="17"/>
       <c r="AE16" s="17"/>
       <c r="AF16" s="17"/>
       <c r="AG16" s="17"/>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:33" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="22" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>107</v>
+        <v>64</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="D17" s="23">
         <v>7</v>
@@ -2434,7 +2496,7 @@
       </c>
       <c r="H17" s="23"/>
       <c r="I17" s="21" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
@@ -2452,10 +2514,10 @@
       <c r="W17" s="17"/>
       <c r="X17" s="17"/>
       <c r="Y17" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="Z17" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="AA17" s="17"/>
       <c r="AB17" s="17"/>
@@ -2467,13 +2529,13 @@
     </row>
     <row r="18" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="22" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D18" s="24">
         <v>6</v>
@@ -2489,20 +2551,20 @@
       </c>
       <c r="H18" s="23"/>
       <c r="I18" s="21" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="L18" s="18"/>
       <c r="M18" s="21" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="N18" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="O18" s="18"/>
       <c r="P18" s="18"/>
@@ -2526,13 +2588,13 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A19" s="22" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="D19" s="24">
         <v>8</v>
@@ -2548,74 +2610,74 @@
       </c>
       <c r="H19" s="23"/>
       <c r="I19" s="21" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="K19" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="L19" s="17"/>
       <c r="M19" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="O19" s="17"/>
       <c r="P19" s="21" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="Q19" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="R19" s="17"/>
       <c r="S19" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="T19" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="U19" s="17"/>
       <c r="V19" s="21" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="W19" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="X19" s="17"/>
       <c r="Y19" s="21" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="Z19" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="AA19" s="17"/>
       <c r="AB19" s="21" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="AC19" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="AD19" s="17"/>
       <c r="AE19" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="AF19" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="AG19" s="17"/>
     </row>
     <row r="20" spans="1:33" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="22" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="D20" s="23">
         <v>8</v>
@@ -2631,64 +2693,70 @@
       </c>
       <c r="H20" s="23"/>
       <c r="I20" s="21" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="K20" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="L20" s="17"/>
       <c r="M20" s="21" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="N20" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="O20" s="17"/>
       <c r="P20" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="Q20" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="R20" s="17"/>
       <c r="S20" s="21" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="T20" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="U20" s="17"/>
       <c r="V20" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="W20" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="X20" s="17"/>
       <c r="Y20" s="17"/>
       <c r="Z20" s="17"/>
       <c r="AA20" s="17"/>
       <c r="AB20" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="AC20" s="21" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="AD20" s="17"/>
       <c r="AE20" s="17"/>
       <c r="AF20" s="17"/>
       <c r="AG20" s="17"/>
     </row>
-    <row r="22" spans="1:33" ht="175.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:33" ht="229.5" x14ac:dyDescent="0.15">
       <c r="A22" s="27" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="AE2:AG2"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
@@ -2700,16 +2768,101 @@
     <mergeCell ref="V2:X2"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D4:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D4" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+    </row>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2723,21 +2876,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="5" master=""/>
-</allowEditUser>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2778,17 +2927,21 @@
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="5" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2801,7 +2954,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -2810,7 +2963,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -2828,7 +2981,7 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -2837,7 +2990,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
